--- a/formatted/candidates/candidates-5/candidates-nationalities.xlsx
+++ b/formatted/candidates/candidates-5/candidates-nationalities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophe.meade/Git/MarineMax/tcn.migration/formatted/candidates/candidates-5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFA0194-0696-AC4C-AC85-AB485B0DA69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B85BBC-4CA6-8848-94F7-ADD3F4FA4D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2600" windowWidth="52960" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7746,7 +7746,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B721" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
